--- a/Hamburgueria - PC/Excel/produtos.xlsx
+++ b/Hamburgueria - PC/Excel/produtos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7816C4-3721-4A48-BF57-9EE2719EDA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA1D5D3-F483-446A-B649-9A9BDD567076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
   </bookViews>
   <sheets>
     <sheet name="Diario" sheetId="5" r:id="rId1"/>
-    <sheet name="Diario (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="Diario (3)" sheetId="7" r:id="rId3"/>
-    <sheet name="Diario (4)" sheetId="8" r:id="rId4"/>
+    <sheet name="Semana" sheetId="6" r:id="rId2"/>
+    <sheet name="Mensal" sheetId="7" r:id="rId3"/>
+    <sheet name="Anual" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -534,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DB7E3F-04A2-42B9-B247-8EDD2228A763}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -774,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E59608F-5AF0-4A87-B68E-89B4C37017D4}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Hamburgueria - PC/Excel/produtos.xlsx
+++ b/Hamburgueria - PC/Excel/produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA1D5D3-F483-446A-B649-9A9BDD567076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158E748A-461A-47EC-AADD-1010B5BA5A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
   </bookViews>
@@ -170,23 +170,20 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -210,6 +207,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -535,43 +535,43 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="5" customWidth="1"/>
-    <col min="3" max="5" width="15.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="15.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -579,24 +579,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>SUM(E3:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -615,43 +615,43 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="5" customWidth="1"/>
-    <col min="3" max="5" width="15.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="15.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -659,24 +659,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>SUM(E3:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -695,43 +695,43 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="5" customWidth="1"/>
-    <col min="3" max="5" width="15.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="15.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -739,24 +739,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>SUM(E3:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -775,43 +775,43 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="5" customWidth="1"/>
-    <col min="3" max="5" width="15.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="15.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -819,24 +819,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>SUM(E3:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
